--- a/output.xlsx
+++ b/output.xlsx
@@ -535,13 +535,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="n">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>85.01000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D2" s="7" t="n"/>
     </row>
@@ -575,16 +575,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>99.18000000000002</v>
+        <v>0.04</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>364.63</v>
+        <v>0.01</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>164.21</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
